--- a/SchedulingData/dynamic11/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_9.xlsx
@@ -466,112 +466,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>241.5</v>
+        <v>208.62</v>
       </c>
       <c r="D2" t="n">
-        <v>305.68</v>
+        <v>268.32</v>
       </c>
       <c r="E2" t="n">
-        <v>11.552</v>
+        <v>13.328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>305.68</v>
+        <v>229.24</v>
       </c>
       <c r="D3" t="n">
-        <v>368.06</v>
+        <v>279.1</v>
       </c>
       <c r="E3" t="n">
-        <v>7.444</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>222.94</v>
+        <v>279.1</v>
       </c>
       <c r="D4" t="n">
-        <v>286.48</v>
+        <v>323.06</v>
       </c>
       <c r="E4" t="n">
-        <v>13.872</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>368.06</v>
+        <v>252.86</v>
       </c>
       <c r="D5" t="n">
-        <v>398.22</v>
+        <v>319.16</v>
       </c>
       <c r="E5" t="n">
-        <v>5.068</v>
+        <v>11.244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>254.36</v>
+        <v>268.32</v>
       </c>
       <c r="D6" t="n">
-        <v>303.54</v>
+        <v>332.22</v>
       </c>
       <c r="E6" t="n">
-        <v>13.296</v>
+        <v>10.028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>303.54</v>
+        <v>228.3</v>
       </c>
       <c r="D7" t="n">
-        <v>343.7</v>
+        <v>285.52</v>
       </c>
       <c r="E7" t="n">
-        <v>10.92</v>
+        <v>10.108</v>
       </c>
     </row>
     <row r="8">
@@ -580,131 +580,131 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>343.7</v>
+        <v>237.28</v>
       </c>
       <c r="D8" t="n">
-        <v>401.2</v>
+        <v>282.28</v>
       </c>
       <c r="E8" t="n">
-        <v>8.279999999999999</v>
+        <v>15.292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>401.2</v>
+        <v>285.52</v>
       </c>
       <c r="D9" t="n">
-        <v>455.48</v>
+        <v>328.22</v>
       </c>
       <c r="E9" t="n">
-        <v>5.992</v>
+        <v>7.948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>219.08</v>
+        <v>282.28</v>
       </c>
       <c r="D10" t="n">
-        <v>274.84</v>
+        <v>336.56</v>
       </c>
       <c r="E10" t="n">
-        <v>15.996</v>
+        <v>12.484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>398.22</v>
+        <v>336.56</v>
       </c>
       <c r="D11" t="n">
-        <v>474.82</v>
+        <v>368.88</v>
       </c>
       <c r="E11" t="n">
-        <v>1.988</v>
+        <v>9.891999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>474.82</v>
+        <v>258.78</v>
       </c>
       <c r="D12" t="n">
-        <v>552.74</v>
+        <v>309.28</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>11.712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>286.48</v>
+        <v>368.88</v>
       </c>
       <c r="D13" t="n">
-        <v>343.98</v>
+        <v>412.62</v>
       </c>
       <c r="E13" t="n">
-        <v>11.712</v>
+        <v>7.648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>236.86</v>
+        <v>323.06</v>
       </c>
       <c r="D14" t="n">
-        <v>272.36</v>
+        <v>395.06</v>
       </c>
       <c r="E14" t="n">
-        <v>11.464</v>
+        <v>6.424</v>
       </c>
     </row>
     <row r="15">
@@ -713,93 +713,93 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>247.98</v>
+        <v>319.16</v>
       </c>
       <c r="D15" t="n">
-        <v>305.2</v>
+        <v>375.98</v>
       </c>
       <c r="E15" t="n">
-        <v>12.66</v>
+        <v>8.651999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>272.36</v>
+        <v>412.62</v>
       </c>
       <c r="D16" t="n">
-        <v>342.36</v>
+        <v>456.92</v>
       </c>
       <c r="E16" t="n">
-        <v>7.564</v>
+        <v>4.348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>455.48</v>
+        <v>395.06</v>
       </c>
       <c r="D17" t="n">
-        <v>502.6</v>
+        <v>448.76</v>
       </c>
       <c r="E17" t="n">
-        <v>3.4</v>
+        <v>3.184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>342.36</v>
+        <v>332.22</v>
       </c>
       <c r="D18" t="n">
-        <v>405.7</v>
+        <v>396.78</v>
       </c>
       <c r="E18" t="n">
-        <v>5.32</v>
+        <v>7.652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>405.7</v>
+        <v>448.76</v>
       </c>
       <c r="D19" t="n">
-        <v>449.46</v>
+        <v>480.86</v>
       </c>
       <c r="E19" t="n">
-        <v>2.564</v>
+        <v>1.104</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>274.84</v>
+        <v>480.86</v>
       </c>
       <c r="D20" t="n">
-        <v>319.64</v>
+        <v>550.55</v>
       </c>
       <c r="E20" t="n">
-        <v>13.136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -827,131 +827,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>343.98</v>
+        <v>328.22</v>
       </c>
       <c r="D21" t="n">
-        <v>431.88</v>
+        <v>415.76</v>
       </c>
       <c r="E21" t="n">
-        <v>7.992</v>
+        <v>5.264</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>431.88</v>
+        <v>375.98</v>
       </c>
       <c r="D22" t="n">
-        <v>498.38</v>
+        <v>418.64</v>
       </c>
       <c r="E22" t="n">
-        <v>5.912</v>
+        <v>5.516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>305.2</v>
+        <v>415.76</v>
       </c>
       <c r="D23" t="n">
-        <v>359.4</v>
+        <v>464.36</v>
       </c>
       <c r="E23" t="n">
-        <v>9.359999999999999</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>552.74</v>
+        <v>464.36</v>
       </c>
       <c r="D24" t="n">
-        <v>614.78</v>
+        <v>528.27</v>
       </c>
       <c r="E24" t="n">
-        <v>27.456</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>359.4</v>
+        <v>396.78</v>
       </c>
       <c r="D25" t="n">
-        <v>409.2</v>
+        <v>440.58</v>
       </c>
       <c r="E25" t="n">
-        <v>6.5</v>
+        <v>4.412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>319.64</v>
+        <v>528.27</v>
       </c>
       <c r="D26" t="n">
-        <v>371.34</v>
+        <v>582.5700000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>11.056</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>371.34</v>
+        <v>418.64</v>
       </c>
       <c r="D27" t="n">
-        <v>434.7</v>
+        <v>460.28</v>
       </c>
       <c r="E27" t="n">
-        <v>8.300000000000001</v>
+        <v>2.972</v>
       </c>
     </row>
     <row r="28">
@@ -960,207 +960,207 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>409.2</v>
+        <v>460.28</v>
       </c>
       <c r="D28" t="n">
-        <v>475.22</v>
+        <v>490.44</v>
       </c>
       <c r="E28" t="n">
-        <v>3.028</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>502.6</v>
+        <v>490.44</v>
       </c>
       <c r="D29" t="n">
-        <v>576.1</v>
+        <v>585.85</v>
       </c>
       <c r="E29" t="n">
-        <v>0.16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>576.1</v>
+        <v>440.58</v>
       </c>
       <c r="D30" t="n">
-        <v>657.6799999999999</v>
+        <v>519.36</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>449.46</v>
+        <v>519.36</v>
       </c>
       <c r="D31" t="n">
-        <v>486.86</v>
+        <v>583.15</v>
       </c>
       <c r="E31" t="n">
-        <v>0.444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>486.86</v>
+        <v>585.85</v>
       </c>
       <c r="D32" t="n">
-        <v>557.87</v>
+        <v>631.25</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>475.22</v>
+        <v>309.28</v>
       </c>
       <c r="D33" t="n">
-        <v>517.34</v>
+        <v>348.66</v>
       </c>
       <c r="E33" t="n">
-        <v>0.436</v>
+        <v>8.904</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>517.34</v>
+        <v>456.92</v>
       </c>
       <c r="D34" t="n">
-        <v>622.77</v>
+        <v>499.22</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>2.228</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>657.6799999999999</v>
+        <v>348.66</v>
       </c>
       <c r="D35" t="n">
-        <v>741.38</v>
+        <v>396.26</v>
       </c>
       <c r="E35" t="n">
-        <v>26.76</v>
+        <v>6.744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>557.87</v>
+        <v>499.22</v>
       </c>
       <c r="D36" t="n">
-        <v>603.27</v>
+        <v>566.66</v>
       </c>
       <c r="E36" t="n">
-        <v>27.14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>434.7</v>
+        <v>566.66</v>
       </c>
       <c r="D37" t="n">
-        <v>477.36</v>
+        <v>634.46</v>
       </c>
       <c r="E37" t="n">
-        <v>5.164</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>498.38</v>
+        <v>396.26</v>
       </c>
       <c r="D38" t="n">
-        <v>543.24</v>
+        <v>467.12</v>
       </c>
       <c r="E38" t="n">
-        <v>3.536</v>
+        <v>3.768</v>
       </c>
     </row>
     <row r="39">
@@ -1169,71 +1169,71 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>741.38</v>
+        <v>634.46</v>
       </c>
       <c r="D39" t="n">
-        <v>769.38</v>
+        <v>666.5599999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>24.6</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>622.77</v>
+        <v>583.15</v>
       </c>
       <c r="D40" t="n">
-        <v>687.45</v>
+        <v>650.35</v>
       </c>
       <c r="E40" t="n">
-        <v>27.192</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>543.24</v>
+        <v>467.12</v>
       </c>
       <c r="D41" t="n">
-        <v>616.64</v>
+        <v>515.78</v>
       </c>
       <c r="E41" t="n">
-        <v>0.296</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>616.64</v>
+        <v>515.78</v>
       </c>
       <c r="D42" t="n">
-        <v>683.05</v>
+        <v>615.0599999999999</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -1245,36 +1245,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>477.36</v>
+        <v>550.55</v>
       </c>
       <c r="D43" t="n">
-        <v>519.5599999999999</v>
+        <v>603.27</v>
       </c>
       <c r="E43" t="n">
-        <v>2.084</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>687.45</v>
+        <v>582.5700000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>751.53</v>
+        <v>666.35</v>
       </c>
       <c r="E44" t="n">
-        <v>24.384</v>
+        <v>24.472</v>
       </c>
     </row>
   </sheetData>
